--- a/Warbler_Schema.xlsx
+++ b/Warbler_Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Springboard\SQL\SQL\warbler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B444C4D-7C80-4100-AE9D-005ADBC27D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33346441-33EA-4374-A467-816658D8BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="450" windowWidth="16515" windowHeight="15075" xr2:uid="{EC4F5B3D-8450-4563-8B72-A08F2E0F4E17}"/>
+    <workbookView xWindow="225" yWindow="450" windowWidth="17835" windowHeight="15075" xr2:uid="{EC4F5B3D-8450-4563-8B72-A08F2E0F4E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,13 +341,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB93905-BD03-4DDB-8999-2327B0450B50}">
   <dimension ref="C7:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,20 +901,20 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="24" spans="3:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-    </row>
-    <row r="25" spans="3:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="16" t="s">
         <v>16</v>
       </c>
@@ -926,16 +924,16 @@
       <c r="G25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -949,16 +947,16 @@
       <c r="G26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="17">
         <v>1</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="18"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E27" s="12">
@@ -970,16 +968,16 @@
       <c r="G27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="17">
         <v>2</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="18"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E28" s="12">
@@ -991,16 +989,16 @@
       <c r="G28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="17">
         <v>3</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="18"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E29" s="12">
@@ -1012,10 +1010,10 @@
       <c r="G29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E30" s="12">
@@ -1027,28 +1025,28 @@
       <c r="G30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="12"/>
